--- a/backupfiles/calculation.xlsx
+++ b/backupfiles/calculation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SAR 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Gitlab\backupfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <r>
       <t>x</t>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>arcgis:135 ObjectspatialReference: {wkid: 102100, latestWkid: 3857}x: -8967838.89939007y: 4467193.917456377__proto__: Object</t>
+  </si>
+  <si>
+    <t>max x,y</t>
+  </si>
+  <si>
+    <t>min x,y</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,646 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-8969595.1595477108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8969390.9293627795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8969481.6983338594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8969408.2471269108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8968981.8718285505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8968559.07951588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8968476.6708447691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8968407.3997878898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8968292.7442454696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8968181.6716887504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8967898.6158184092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8967597.6450195592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8969143.1061850693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8968569.8284729794</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8968437.2580020595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8969888.3672107905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8967838.8993900698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4466816.5096292803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4466843.9791863197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4467187.9458135702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4467306.1843416598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4467445.9207839798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4467154.5046136696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4467165.2535707699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4467000.4362285398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4467030.2944427095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4467198.6947706398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4467535.49542649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4467263.1885132501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4466485.6806162298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4467659.70559745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4467825.7172682397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4467681.2035116497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4467193.9174563698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18E3-4EA8-ACE3-3FAF80D8AF1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-8969595.1595477108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8969390.9293627795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8969481.6983338594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8969408.2471269108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8968981.8718285505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8968559.07951588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8968476.6708447691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8968407.3997878898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8968292.7442454696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8968181.6716887504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8967898.6158184092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8967597.6450195592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8969143.1061850693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8968569.8284729794</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8968437.2580020595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8969888.3672107905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8967838.8993900698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4466816.5096292803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4466843.9791863197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4467187.9458135702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4467306.1843416598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4467445.9207839798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4467154.5046136696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4467165.2535707699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4467000.4362285398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4467030.2944427095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4467198.6947706398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4467535.49542649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4467263.1885132501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4466485.6806162298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4467659.70559745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4467825.7172682397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4467681.2035116497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4467193.9174563698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18E3-4EA8-ACE3-3FAF80D8AF1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31608720"/>
+        <c:axId val="31609968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31608720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31609968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31609968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31608720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1332,6 +1977,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1346,6 +2507,41 @@
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1630,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +2996,7 @@
         <v>37.199758899999999</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -1809,13 +3005,39 @@
         <v>-8968838.2538184673</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="E19">
         <f>AVERAGE(F2:F5)</f>
         <v>4466990.5830179006</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <f>MAX(E2:E5)</f>
+        <v>-8967606.6024839003</v>
+      </c>
+      <c r="F21">
+        <f>MAX(F2:F5)</f>
+        <v>4467675.2318688501</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <f>MIN(E2:E5)</f>
+        <v>-8970062.1420173496</v>
+      </c>
+      <c r="F22">
+        <f>MIN(F2:F5)</f>
+        <v>4466302.9483455298</v>
       </c>
     </row>
   </sheetData>
@@ -1935,151 +3157,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>-8969595.1595477108</v>
       </c>
-      <c r="B1">
+      <c r="C2">
         <v>4466816.5096292803</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>-8969390.9293627795</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>4466843.9791863197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>-8969481.6983338594</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>4467187.9458135702</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>-8969408.2471269108</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>4467306.1843416598</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>-8968981.8718285505</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>4467445.9207839798</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>-8968559.07951588</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>4467154.5046136696</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>-8968476.6708447691</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>4467165.2535707699</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>-8968407.3997878898</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>4467000.4362285398</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>-8968292.7442454696</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>4467030.2944427095</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>-8968181.6716887504</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>4467198.6947706398</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>-8967898.6158184092</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>4467535.49542649</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>-8967597.6450195592</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>4467263.1885132501</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>-8969143.1061850693</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>4466485.6806162298</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>-8968569.8284729794</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>4467659.70559745</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>-8968437.2580020595</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>4467825.7172682397</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>-8969888.3672107905</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>4467681.2035116497</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>-8967838.8993900698</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>4467193.9174563698</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backupfiles/calculation.xlsx
+++ b/backupfiles/calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,23 +817,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1028,23 +1028,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1066,9 +1066,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1092,14 +1092,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1256,7 +1255,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1274,9 +1273,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1290,9 +1289,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1312,13 +1311,13 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1332,6 +1331,33 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="31608720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1349,12 +1375,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1978,56 +2017,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2035,16 +2051,52 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2061,16 +2113,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2079,39 +2126,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -2119,7 +2177,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -2127,14 +2185,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2142,7 +2204,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2158,16 +2220,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2191,14 +2252,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2210,14 +2270,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2229,14 +2288,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2247,12 +2305,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2264,7 +2316,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2283,7 +2335,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -2300,156 +2352,164 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2458,22 +2518,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2483,12 +2532,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2828,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D21" sqref="D21:F22"/>
     </sheetView>
   </sheetViews>
@@ -3159,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
